--- a/files/fO2_calculator_apatite.xlsx
+++ b/files/fO2_calculator_apatite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15481E12-9029-8A46-940D-A55276DE461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6B34A-2EF5-1F44-9412-E012A0D99F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
   </bookViews>
@@ -534,6 +534,12 @@
     </r>
   </si>
   <si>
+    <t>4. The plagioclase trace element predictive models are from Sun et al. (2017).</t>
+  </si>
+  <si>
+    <t>5. Details about apatite formula calculation can be found in Ketcham (2015).</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">3. The formula of mineral, trace element partition coefficients and </t>
     </r>
@@ -573,14 +579,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> will update automatically.</t>
-    </r>
-  </si>
-  <si>
-    <t>4. The plagioclase trace element predictive models are from Sun et al. (2017).</t>
-  </si>
-  <si>
-    <t>5. Details about apatite formula calculation can be found in Ketcham (2015).</t>
+      <t xml:space="preserve"> will be updated automatically.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00&quot; &quot;;\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -822,7 +822,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -834,18 +834,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,17 +1265,17 @@
     </row>
     <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20" x14ac:dyDescent="0.2">

--- a/files/fO2_calculator_apatite.xlsx
+++ b/files/fO2_calculator_apatite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE6B34A-2EF5-1F44-9412-E012A0D99F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C52D8E-0534-7F43-8848-DB17D73AD840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -856,7 +856,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2109,60 +2144,60 @@
         <v>12</v>
       </c>
       <c r="B25" s="6">
-        <f>B5/60.8*2*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
-        <v>0.13365352175769699</v>
+        <f>B5/60.08*2*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
+        <v>0.13523789949445947</v>
       </c>
       <c r="C25" s="5">
-        <f>C5/60.8*2*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
-        <v>2.5332712764011962</v>
+        <f>C5/60.08*2*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
+        <v>2.5443194467072718</v>
       </c>
       <c r="D25" s="6">
-        <f>D5/60.8*2*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
+        <f>D5/60.08*2*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f>E5/60.8*2*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
-        <v>2.7593115701401434</v>
+        <f>E5/60.08*2*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
+        <v>2.7694841366946488</v>
       </c>
       <c r="F25" s="6">
-        <f>F5/60.8*2*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
-        <v>6.2862543466016094E-2</v>
+        <f>F5/60.08*2*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
+        <v>6.3612055774866907E-2</v>
       </c>
       <c r="G25" s="5">
-        <f>G5/60.8*2*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
-        <v>2.5530951231920045</v>
+        <f>G5/60.08*2*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
+        <v>2.5640786102351014</v>
       </c>
       <c r="H25" s="6">
-        <f>H5/60.8*2*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
-        <v>3.5724161223549183E-2</v>
+        <f>H5/60.08*2*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
+        <v>3.6151042176594955E-2</v>
       </c>
       <c r="I25" s="5">
-        <f>I5/60.8*2*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
-        <v>2.4852514589585426</v>
+        <f>I5/60.08*2*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
+        <v>2.4964466564505878</v>
       </c>
       <c r="J25" s="6">
-        <f>J5/60.8*2*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
-        <v>2.0681393521807995E-2</v>
+        <f>J5/60.08*2*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
+        <v>2.0928824811911474E-2</v>
       </c>
       <c r="K25" s="5">
-        <f>K5/60.8*2*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
-        <v>2.4134173248793194</v>
+        <f>K5/60.08*2*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
+        <v>2.424806933445125</v>
       </c>
       <c r="L25" s="6">
-        <f>L5/60.8*2*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
-        <v>4.4351510264773665E-2</v>
+        <f>L5/60.08*2*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
+        <v>4.4881111329930355E-2</v>
       </c>
       <c r="M25" s="5">
-        <f>M5/60.8*2*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
-        <v>2.5486411354681962</v>
+        <f>M5/60.08*2*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
+        <v>2.5596393583149899</v>
       </c>
       <c r="N25" s="6">
-        <f>N5/60.8*2*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
-        <v>2.0554150745741434E-2</v>
+        <f>N5/60.08*2*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
+        <v>2.0800062246179415E-2</v>
       </c>
       <c r="O25" s="5">
-        <f>O5/60.8*2*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
-        <v>2.3237398209465283</v>
+        <f>O5/60.08*2*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
+        <v>2.335329154300815</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2170,59 +2205,59 @@
         <v>13</v>
       </c>
       <c r="B26" s="6">
-        <f>B6/79.87*2*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
-        <v>9.1633668267004538E-3</v>
+        <f>B6/79.87*2*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
+        <v>9.1621928150859826E-3</v>
       </c>
       <c r="C26" s="5">
-        <f>C6/79.87*2*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
+        <f>C6/79.87*2*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="D26" s="6">
-        <f>D6/79.87*2*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
+        <f>D6/79.87*2*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="E26" s="5">
-        <f>E6/79.87*2*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
+        <f>E6/79.87*2*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="F26" s="6">
-        <f>F6/79.87*2*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
+        <f>F6/79.87*2*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <f>G6/79.87*2*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
+        <f>G6/79.87*2*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <f>H6/79.87*2*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
+        <f>H6/79.87*2*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <f>I6/79.87*2*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
+        <f>I6/79.87*2*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f>J6/79.87*2*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
+        <f>J6/79.87*2*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <f>K6/79.87*2*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
+        <f>K6/79.87*2*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <f>L6/79.87*2*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
+        <f>L6/79.87*2*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="M26" s="5">
-        <f>M6/79.87*2*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
+        <f>M6/79.87*2*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
         <v>0</v>
       </c>
       <c r="N26" s="6">
-        <f>N6/79.87*2*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
+        <f>N6/79.87*2*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="O26" s="5">
-        <f>O6/79.87*2*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
+        <f>O6/79.87*2*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
         <v>0</v>
       </c>
     </row>
@@ -2231,60 +2266,60 @@
         <v>14</v>
       </c>
       <c r="B27" s="6">
-        <f>B7/101.96*3*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
-        <v>7.8286049629925133E-3</v>
+        <f>B7/101.96*3*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
+        <v>7.8276019612219319E-3</v>
       </c>
       <c r="C27" s="5">
-        <f>C7/101.96*3*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
-        <v>1.4535522941814729</v>
+        <f>C7/101.96*3*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
+        <v>1.4426033756551482</v>
       </c>
       <c r="D27" s="6">
-        <f>D7/101.96*3*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
+        <f>D7/101.96*3*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f>E7/101.96*3*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
-        <v>1.2387103380283859</v>
+        <f>E7/101.96*3*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
+        <v>1.2285539901072793</v>
       </c>
       <c r="F27" s="6">
-        <f>F7/101.96*3*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
+        <f>F7/101.96*3*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f>G7/101.96*3*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
-        <v>1.299394719236536</v>
+        <f>G7/101.96*3*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
+        <v>1.2895309850744894</v>
       </c>
       <c r="H27" s="6">
-        <f>H7/101.96*3*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
+        <f>H7/101.96*3*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <f>I7/101.96*3*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
-        <v>1.3656263486668179</v>
+        <f>I7/101.96*3*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
+        <v>1.3555332828810249</v>
       </c>
       <c r="J27" s="6">
-        <f>J7/101.96*3*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
+        <f>J7/101.96*3*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="K27" s="5">
-        <f>K7/101.96*3*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
-        <v>1.4463493537724841</v>
+        <f>K7/101.96*3*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
+        <v>1.4359664388149505</v>
       </c>
       <c r="L27" s="6">
-        <f>L7/101.96*3*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
+        <f>L7/101.96*3*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="M27" s="5">
-        <f>M7/101.96*3*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
-        <v>1.310249455788711</v>
+        <f>M7/101.96*3*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
+        <v>1.3003205430629778</v>
       </c>
       <c r="N27" s="6">
-        <f>N7/101.96*3*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
+        <f>N7/101.96*3*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="O27" s="5">
-        <f>O7/101.96*3*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
-        <v>1.56916452793491</v>
+        <f>O7/101.96*3*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
+        <v>1.5583156328593077</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2292,60 +2327,60 @@
         <v>15</v>
       </c>
       <c r="B28" s="6">
-        <f>B8/71.85*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>0.28514979538457941</v>
+        <f>B8/71.85*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
+        <v>0.28511326195991393</v>
       </c>
       <c r="C28" s="5">
-        <f>C8/71.85*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>2.2462374259222935E-2</v>
+        <f>C8/71.85*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
+        <v>2.2293175870794445E-2</v>
       </c>
       <c r="D28" s="6">
-        <f>D8/71.85*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
+        <f>D8/71.85*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
         <v>5.6852637855418657E-2</v>
       </c>
       <c r="E28" s="5">
-        <f>E8/71.85*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>7.1670510966818403E-3</v>
+        <f>E8/71.85*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
+        <v>7.1082875082370163E-3</v>
       </c>
       <c r="F28" s="6">
-        <f>F8/71.85*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
+        <f>F8/71.85*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f>G8/71.85*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>2.4557945743248034E-2</v>
+        <f>G8/71.85*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
+        <v>2.4371525831891394E-2</v>
       </c>
       <c r="H28" s="6">
-        <f>H8/71.85*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
+        <f>H8/71.85*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="I28" s="5">
-        <f>I8/71.85*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>3.6743512762050123E-2</v>
+        <f>I8/71.85*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
+        <v>3.6471948954079854E-2</v>
       </c>
       <c r="J28" s="6">
-        <f>J8/71.85*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
+        <f>J8/71.85*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="K28" s="5">
-        <f>K8/71.85*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>8.8263176629399226E-2</v>
+        <f>K8/71.85*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
+        <v>8.7629561345211812E-2</v>
       </c>
       <c r="L28" s="6">
-        <f>L8/71.85*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
+        <f>L8/71.85*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="M28" s="5">
-        <f>M8/71.85*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>1.3990971112741885E-2</v>
+        <f>M8/71.85*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
+        <v>1.3884949217054054E-2</v>
       </c>
       <c r="N28" s="6">
-        <f>N8/71.85*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
+        <f>N8/71.85*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="O28" s="5">
-        <f>O8/71.85*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>2.0731134296659556E-2</v>
+        <f>O8/71.85*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
+        <v>2.0587803309514017E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2353,59 +2388,59 @@
         <v>16</v>
       </c>
       <c r="B29" s="6">
-        <f>B9/70.94*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>4.2976173463575636E-2</v>
+        <f>B9/70.94*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
+        <v>4.297066735127586E-2</v>
       </c>
       <c r="C29" s="5">
-        <f>C9/70.94*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
+        <f>C9/70.94*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="D29" s="6">
-        <f>D9/70.94*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
+        <f>D9/70.94*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="E29" s="5">
-        <f>E9/70.94*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
+        <f>E9/70.94*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="F29" s="6">
-        <f>F9/70.94*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
+        <f>F9/70.94*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f>G9/70.94*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
+        <f>G9/70.94*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
-        <f>H9/70.94*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
+        <f>H9/70.94*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="I29" s="5">
-        <f>I9/70.94*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
+        <f>I9/70.94*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f>J9/70.94*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
+        <f>J9/70.94*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="K29" s="5">
-        <f>K9/70.94*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
+        <f>K9/70.94*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="L29" s="6">
-        <f>L9/70.94*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
+        <f>L9/70.94*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="M29" s="5">
-        <f>M9/70.94*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
+        <f>M9/70.94*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="N29" s="6">
-        <f>N9/70.94*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
+        <f>N9/70.94*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="O29" s="5">
-        <f>O9/70.94*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
+        <f>O9/70.94*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
         <v>0</v>
       </c>
     </row>
@@ -2414,59 +2449,59 @@
         <v>8</v>
       </c>
       <c r="B30" s="6">
-        <f>B10/40.3*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>1.4556973853679982E-2</v>
+        <f>B10/40.3*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
+        <v>1.4555108812511272E-2</v>
       </c>
       <c r="C30" s="5">
-        <f>C10/40.3*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
+        <f>C10/40.3*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="D30" s="6">
-        <f>D10/40.3*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
+        <f>D10/40.3*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="E30" s="5">
-        <f>E10/40.3*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
+        <f>E10/40.3*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="F30" s="6">
-        <f>F10/40.3*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
+        <f>F10/40.3*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f>G10/40.3*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
+        <f>G10/40.3*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="H30" s="6">
-        <f>H10/40.3*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
+        <f>H10/40.3*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <f>I10/40.3*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
+        <f>I10/40.3*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <f>J10/40.3*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
+        <f>J10/40.3*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="K30" s="5">
-        <f>K10/40.3*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
+        <f>K10/40.3*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="L30" s="6">
-        <f>L10/40.3*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
+        <f>L10/40.3*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="M30" s="5">
-        <f>M10/40.3*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
+        <f>M10/40.3*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
         <v>0</v>
       </c>
       <c r="N30" s="6">
-        <f>N10/40.3*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
+        <f>N10/40.3*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="O30" s="5">
-        <f>O10/40.3*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
+        <f>O10/40.3*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
         <v>0</v>
       </c>
     </row>
@@ -2475,60 +2510,60 @@
         <v>9</v>
       </c>
       <c r="B31" s="6">
-        <f>B11/56.08*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>9.7650360272550127</v>
+        <f>B11/56.08*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
+        <v>9.7637849297131876</v>
       </c>
       <c r="C31" s="5">
-        <f>C11/56.08*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>0.47986321135740068</v>
+        <f>C11/56.08*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
+        <v>0.47624862987590594</v>
       </c>
       <c r="D31" s="6">
-        <f>D11/56.08*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
+        <f>D11/56.08*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
         <v>9.9062274619830379</v>
       </c>
       <c r="E31" s="5">
-        <f>E11/56.08*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>0.21457970179413438</v>
+        <f>E11/56.08*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
+        <v>0.21282033478045681</v>
       </c>
       <c r="F31" s="6">
-        <f>F11/56.08*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
-        <v>10.05170543113999</v>
+        <f>F11/56.08*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
+        <v>10.051099674632765</v>
       </c>
       <c r="G31" s="5">
-        <f>G11/56.08*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>0.31697113485154049</v>
+        <f>G11/56.08*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
+        <v>0.31456499992969411</v>
       </c>
       <c r="H31" s="6">
-        <f>H11/56.08*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
-        <v>10.064501618480401</v>
+        <f>H11/56.08*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
+        <v>10.064156925848561</v>
       </c>
       <c r="I31" s="5">
-        <f>I11/56.08*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>0.36965378901565121</v>
+        <f>I11/56.08*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
+        <v>0.36692175326213422</v>
       </c>
       <c r="J31" s="6">
-        <f>J11/56.08*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
-        <v>10.024526146673789</v>
+        <f>J11/56.08*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
+        <v>10.024327387309167</v>
       </c>
       <c r="K31" s="5">
-        <f>K11/56.08*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>0.40619836718723812</v>
+        <f>K11/56.08*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
+        <v>0.40328238904447911</v>
       </c>
       <c r="L31" s="6">
-        <f>L11/56.08*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
-        <v>9.9571646966866822</v>
+        <f>L11/56.08*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
+        <v>9.9567413285229414</v>
       </c>
       <c r="M31" s="5">
-        <f>M11/56.08*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>0.28555630649687519</v>
+        <f>M11/56.08*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
+        <v>0.2833923951645988</v>
       </c>
       <c r="N31" s="6">
-        <f>N11/56.08*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
-        <v>10.012989232523624</v>
+        <f>N11/56.08*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
+        <v>10.012791923345336</v>
       </c>
       <c r="O31" s="5">
-        <f>O11/56.08*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>0.50156675542242968</v>
+        <f>O11/56.08*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
+        <v>0.49809902147476681</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2536,60 +2571,60 @@
         <v>17</v>
       </c>
       <c r="B32" s="6">
-        <f>B12/61.98*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
-        <v>1.5424585013890584E-2</v>
+        <f>B12/61.98*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
+        <v>1.5422608814279985E-2</v>
       </c>
       <c r="C32" s="5">
-        <f>C12/61.98*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
-        <v>0.42830350165655984</v>
+        <f>C12/61.98*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
+        <v>0.42507729496076435</v>
       </c>
       <c r="D32" s="6">
-        <f>D12/61.98*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
+        <f>D12/61.98*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="E32" s="5">
-        <f>E12/61.98*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
-        <v>0.78011198552429217</v>
+        <f>E12/61.98*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
+        <v>0.77371574541942567</v>
       </c>
       <c r="F32" s="6">
-        <f>F12/61.98*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
-        <v>1.7167452513541338E-2</v>
+        <f>F12/61.98*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
+        <v>1.7166417933275949E-2</v>
       </c>
       <c r="G32" s="5">
-        <f>G12/61.98*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
-        <v>1.1561487183870909</v>
+        <f>G12/61.98*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
+        <v>1.1473723677977476</v>
       </c>
       <c r="H32" s="6">
-        <f>H12/61.98*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
-        <v>1.9344043567025265E-2</v>
+        <f>H12/61.98*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
+        <v>1.9343381065339608E-2</v>
       </c>
       <c r="I32" s="5">
-        <f>I12/61.98*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
-        <v>1.1178472315086507</v>
+        <f>I12/61.98*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
+        <v>1.1095854506363807</v>
       </c>
       <c r="J32" s="6">
-        <f>J12/61.98*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
-        <v>1.3339425799169457E-2</v>
+        <f>J12/61.98*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
+        <v>1.3339161314269373E-2</v>
       </c>
       <c r="K32" s="5">
-        <f>K12/61.98*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
-        <v>1.0055926421461443</v>
+        <f>K12/61.98*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
+        <v>0.99837378948230338</v>
       </c>
       <c r="L32" s="6">
-        <f>L12/61.98*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
-        <v>2.1139735412692647E-2</v>
+        <f>L12/61.98*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
+        <v>2.1138836573390867E-2</v>
       </c>
       <c r="M32" s="5">
-        <f>M12/61.98*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
-        <v>1.1837738945962513</v>
+        <f>M12/61.98*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
+        <v>1.1748033984555966</v>
       </c>
       <c r="N32" s="6">
-        <f>N12/61.98*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
-        <v>7.9548657279235289E-3</v>
+        <f>N12/61.98*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
+        <v>7.9547089747318764E-3</v>
       </c>
       <c r="O32" s="5">
-        <f>O12/61.98*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
-        <v>0.94726029631398256</v>
+        <f>O12/61.98*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
+        <v>0.94071112484021813</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2597,60 +2632,60 @@
         <v>18</v>
       </c>
       <c r="B33" s="6">
-        <f>B13/94.2*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
+        <f>B13/94.2*1*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="C33" s="5">
-        <f>C13/94.2*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
-        <v>7.2422590482331656E-2</v>
+        <f>C13/94.2*1*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
+        <v>7.187706553229678E-2</v>
       </c>
       <c r="D33" s="6">
-        <f>D13/94.2*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
+        <f>D13/94.2*1*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f>E13/94.2*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
-        <v>2.3017214048344628E-2</v>
+        <f>E13/94.2*1*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
+        <v>2.2828492902752465E-2</v>
       </c>
       <c r="F33" s="6">
-        <f>F13/94.2*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
-        <v>8.058673717789499E-4</v>
+        <f>F13/94.2*1*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
+        <v>8.0581880694507568E-4</v>
       </c>
       <c r="G33" s="5">
-        <f>G13/94.2*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
-        <v>5.0228469945706615E-2</v>
+        <f>G13/94.2*1*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
+        <v>4.9847184515208719E-2</v>
       </c>
       <c r="H33" s="6">
-        <f>H13/94.2*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
-        <v>1.5269839848155916E-4</v>
+        <f>H13/94.2*1*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
+        <v>1.5269316881248604E-4</v>
       </c>
       <c r="I33" s="5">
-        <f>I13/94.2*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
-        <v>3.1473283101322351E-2</v>
+        <f>I13/94.2*1*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
+        <v>3.1240670485765652E-2</v>
       </c>
       <c r="J33" s="6">
-        <f>J13/94.2*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
-        <v>4.7375196561249948E-4</v>
+        <f>J13/94.2*1*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
+        <v>4.7374257238649598E-4</v>
       </c>
       <c r="K33" s="5">
-        <f>K13/94.2*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
-        <v>1.2766909385848752E-2</v>
+        <f>K13/94.2*1*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
+        <v>1.2675259512961499E-2</v>
       </c>
       <c r="L33" s="6">
-        <f>L13/94.2*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
-        <v>1.8570556840681737E-3</v>
+        <f>L13/94.2*1*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
+        <v>1.8569767240148975E-3</v>
       </c>
       <c r="M33" s="5">
-        <f>M13/94.2*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
-        <v>9.181864094559794E-2</v>
+        <f>M13/94.2*1*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
+        <v>9.1122850332202493E-2</v>
       </c>
       <c r="N33" s="6">
-        <f>N13/94.2*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
-        <v>3.4879789950858874E-4</v>
+        <f>N13/94.2*1*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
+        <v>3.4879102633362142E-4</v>
       </c>
       <c r="O33" s="5">
-        <f>O13/94.2*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
-        <v>5.6910566569970964E-3</v>
+        <f>O13/94.2*1*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
+        <v>5.6517098100336846E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2658,59 +2693,59 @@
         <v>19</v>
       </c>
       <c r="B34" s="6">
-        <f>B14/141.94*5*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/5*2</f>
-        <v>5.8348768211691713</v>
+        <f>B14/141.94*5*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/5*2</f>
+        <v>5.8341292560780191</v>
       </c>
       <c r="C34" s="5">
-        <f>C14/141.94*5*(28/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/5*2</f>
+        <f>C14/141.94*5*(28/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="D34" s="6">
-        <f>D14/141.94*5*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/5*2</f>
+        <f>D14/141.94*5*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/5*2</f>
         <v>6.0147679600646207</v>
       </c>
       <c r="E34" s="5">
-        <f>E14/141.94*5*(28/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/5*2</f>
+        <f>E14/141.94*5*(28/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="F34" s="6">
-        <f>F14/141.94*5*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/5*2</f>
-        <v>5.9254331287941291</v>
+        <f>F14/141.94*5*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/5*2</f>
+        <v>5.9250760381789602</v>
       </c>
       <c r="G34" s="5">
-        <f>G14/141.94*5*(28/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/5*2</f>
+        <f>G14/141.94*5*(28/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="H34" s="6">
-        <f>H14/141.94*5*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/5*2</f>
-        <v>5.9417206752359011</v>
+        <f>H14/141.94*5*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/5*2</f>
+        <v>5.9415171810724701</v>
       </c>
       <c r="I34" s="5">
-        <f>I14/141.94*5*(28/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/5*2</f>
+        <f>I14/141.94*5*(28/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="J34" s="6">
-        <f>J14/141.94*5*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/5*2</f>
-        <v>5.9708817909600826</v>
+        <f>J14/141.94*5*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/5*2</f>
+        <v>5.9707634044494746</v>
       </c>
       <c r="K34" s="5">
-        <f>K14/141.94*5*(28/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/5*2</f>
+        <f>K14/141.94*5*(28/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="L34" s="6">
-        <f>L14/141.94*5*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/5*2</f>
-        <v>5.977053554894157</v>
+        <f>L14/141.94*5*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/5*2</f>
+        <v>5.976799416867399</v>
       </c>
       <c r="M34" s="5">
-        <f>M14/141.94*5*(28/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/5*2</f>
+        <f>M14/141.94*5*(28/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/5*2</f>
         <v>0</v>
       </c>
       <c r="N34" s="6">
-        <f>N14/141.94*5*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/5*2</f>
-        <v>5.9767002536684695</v>
+        <f>N14/141.94*5*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/5*2</f>
+        <v>5.9765824808647086</v>
       </c>
       <c r="O34" s="5">
-        <f>O14/141.94*5*(28/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/5*2</f>
+        <f>O14/141.94*5*(28/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/5*2</f>
         <v>0</v>
       </c>
     </row>
@@ -2719,59 +2754,59 @@
         <v>20</v>
       </c>
       <c r="B35" s="6">
-        <f>B15/152*3*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
+        <f>B15/152*3*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="C35" s="6">
-        <f>C15/152*3*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
+        <f>C15/152*3*(8/(C5/60.08*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <f>D15/152*3*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
+        <f>D15/152*3*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <f>E15/152*3*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
+        <f>E15/152*3*(8/(E5/60.08*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f>F15/152*3*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
+        <f>F15/152*3*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f>G15/152*3*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
+        <f>G15/152*3*(8/(G5/60.08*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <f>H15/152*3*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
+        <f>H15/152*3*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="I35" s="6">
-        <f>I15/152*3*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
+        <f>I15/152*3*(8/(I5/60.08*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="J35" s="6">
-        <f>J15/152*3*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
+        <f>J15/152*3*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="K35" s="6">
-        <f>K15/152*3*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
+        <f>K15/152*3*(8/(K5/60.08*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="L35" s="6">
-        <f>L15/152*3*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
+        <f>L15/152*3*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="M35" s="6">
-        <f>M15/152*3*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
+        <f>M15/152*3*(8/(M5/60.08*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
         <v>0</v>
       </c>
       <c r="N35" s="6">
-        <f>N15/152*3*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
+        <f>N15/152*3*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="O35" s="6">
-        <f>O15/152*3*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
+        <f>O15/152*3*(8/(O5/60.08*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
         <v>0</v>
       </c>
     </row>
@@ -2780,32 +2815,32 @@
         <v>4</v>
       </c>
       <c r="B36" s="6">
-        <f>B16/19*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
+        <f>B16/19*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="D36" s="6">
-        <f>D16/19*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
+        <f>D16/19*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
         <v>1.8166886396186819</v>
       </c>
       <c r="F36" s="6">
-        <f>F16/19*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
-        <v>1.5875340706660932</v>
+        <f>F16/19*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
+        <v>1.5874383994289747</v>
       </c>
       <c r="H36" s="6">
-        <f>H16/19*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
-        <v>1.7528655107021467</v>
+        <f>H16/19*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
+        <v>1.7528054779405606</v>
       </c>
       <c r="J36" s="6">
-        <f>J16/19*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
-        <v>1.8365077447365497</v>
+        <f>J16/19*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
+        <v>1.8364713317323711</v>
       </c>
       <c r="L36" s="6">
-        <f>L16/19*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
-        <v>2.0142408969478747</v>
+        <f>L16/19*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
+        <v>2.0141552535447724</v>
       </c>
       <c r="N36" s="6">
-        <f>N16/19*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
-        <v>1.7484730901044045</v>
+        <f>N16/19*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
+        <v>1.7484386358789321</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2813,32 +2848,32 @@
         <v>5</v>
       </c>
       <c r="B37" s="6">
-        <f>B17/35.5*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
-        <v>1.2079854342791022E-2</v>
+        <f>B17/35.5*(26-(27-26*((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.08*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
+        <v>1.2078306670459686E-2</v>
       </c>
       <c r="D37" s="6">
-        <f>D17/35.5*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
+        <f>D17/35.5*(26-(27-26*((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.08*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
         <v>0.20424310149559149</v>
       </c>
       <c r="F37" s="6">
-        <f>F17/35.5*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
-        <v>3.4917785849109512E-2</v>
+        <f>F17/35.5*(26-(27-26*((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.08*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
+        <v>3.4915681561818075E-2</v>
       </c>
       <c r="H37" s="6">
-        <f>H17/35.5*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
-        <v>3.496223746304692E-2</v>
+        <f>H17/35.5*(26-(27-26*((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.08*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
+        <v>3.4961040063900599E-2</v>
       </c>
       <c r="J37" s="6">
-        <f>J17/35.5*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
-        <v>2.6565395622378717E-2</v>
+        <f>J17/35.5*(26-(27-26*((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.08*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
+        <v>2.6564868902105097E-2</v>
       </c>
       <c r="L37" s="6">
-        <f>L17/35.5*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
-        <v>1.4607648017866952E-2</v>
+        <f>L17/35.5*(26-(27-26*((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.08*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
+        <v>1.4607026916046671E-2</v>
       </c>
       <c r="N37" s="6">
-        <f>N17/35.5*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
-        <v>2.3468401227062518E-2</v>
+        <f>N17/35.5*(26-(27-26*((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.08*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
+        <v>2.3467938774656513E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2846,15 +2881,27 @@
         <v>6</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" ref="B38" si="2">2-B36-B37</f>
-        <v>1.9879201456572089</v>
+        <f t="shared" ref="B38:D38" si="2">2-B36-B37</f>
+        <v>1.9879216933295403</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:G38" si="3">2-F36-F37</f>
+        <v>0.37764591900920724</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" ref="H38:I38" si="4">2-H36-H37</f>
+        <v>0.21223348199553876</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ref="J38:K38" si="5">2-J36-J37</f>
+        <v>0.1369637993655238</v>
+      </c>
       <c r="L38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="6">
+        <f t="shared" ref="N38:O38" si="6">2-N36-N37</f>
+        <v>0.22809342534641136</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D39" s="9"/>
@@ -2881,11 +2928,11 @@
       </c>
       <c r="B41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$20+273.15)/8.31+2.53599567918181*B31+3.22062336896664*B25+5.56939536365427*B34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B34+207.58312042747*B25)*1000000000*6.02E+23)/(8.31*(B20+273.15)))*((((0.817581105867826+0.0645260838443783*B34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>2.4895377600139272</v>
+        <v>2.4821973430805722</v>
       </c>
       <c r="C41" s="16">
         <f>EXP((6910-2542*C21*C21)/(C$20+273.15)/8.31+2.39*C32*C32)*EXP(((-4*PI()*(719-487*(1.189+0.075*C32))*1000000000*6.02E+23)/(8.31*(C20+273.15)))*((((1.189+0.075*C32)*0.0000000001/2*((1.189+0.075*C32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*C32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>2.20660615580841</v>
+        <v>2.1904159806080847</v>
       </c>
       <c r="D41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(D$20+273.15)/8.31+2.53599567918181*D31+3.22062336896664*D25+5.56939536365427*D34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*D34+207.58312042747*D25)*1000000000*6.02E+23)/(8.31*(D20+273.15)))*((((0.817581105867826+0.0645260838443783*D34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*D34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*D34)*0.0000000001-1.3*0.0000000001)^3))))</f>
@@ -2893,47 +2940,47 @@
       </c>
       <c r="E41" s="16">
         <f>EXP((6910-2542*E21*E21)/(E$20+273.15)/8.31+2.39*E32*E32)*EXP(((-4*PI()*(719-487*(1.189+0.075*E32))*1000000000*6.02E+23)/(8.31*(E20+273.15)))*((((1.189+0.075*E32)*0.0000000001/2*((1.189+0.075*E32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*E32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>7.843987756880356</v>
+        <v>7.6589293710994362</v>
       </c>
       <c r="F41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(F$20+273.15)/8.31+2.53599567918181*F31+3.22062336896664*F25+5.56939536365427*F34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*F34+207.58312042747*F25)*1000000000*6.02E+23)/(8.31*(F20+273.15)))*((((0.817581105867826+0.0645260838443783*F34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*F34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*F34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.6248541209942315</v>
+        <v>6.6150430689065551</v>
       </c>
       <c r="G41" s="16">
         <f>EXP((6910-2542*G21*G21)/(G$20+273.15)/8.31+2.39*G32*G32)*EXP(((-4*PI()*(719-487*(1.189+0.075*G32))*1000000000*6.02E+23)/(8.31*(G20+273.15)))*((((1.189+0.075*G32)*0.0000000001/2*((1.189+0.075*G32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*G32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>44.483425216418738</v>
+        <v>42.441665799435761</v>
       </c>
       <c r="H41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(H$20+273.15)/8.31+2.53599567918181*H31+3.22062336896664*H25+5.56939536365427*H34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*H34+207.58312042747*H25)*1000000000*6.02E+23)/(8.31*(H20+273.15)))*((((0.817581105867826+0.0645260838443783*H34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*H34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*H34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.939180155455694</v>
+        <v>6.9333280709029008</v>
       </c>
       <c r="I41" s="16">
         <f>EXP((6910-2542*I21*I21)/(I$20+273.15)/8.31+2.39*I32*I32)*EXP(((-4*PI()*(719-487*(1.189+0.075*I32))*1000000000*6.02E+23)/(8.31*(I20+273.15)))*((((1.189+0.075*I32)*0.0000000001/2*((1.189+0.075*I32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*I32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>36.326807139911921</v>
+        <v>34.803229806677216</v>
       </c>
       <c r="J41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(J$20+273.15)/8.31+2.53599567918181*J31+3.22062336896664*J25+5.56939536365427*J34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*J34+207.58312042747*J25)*1000000000*6.02E+23)/(8.31*(J20+273.15)))*((((0.817581105867826+0.0645260838443783*J34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*J34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*J34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.9613641696681867</v>
+        <v>6.9579348001661891</v>
       </c>
       <c r="K41" s="16">
         <f>EXP((6910-2542*K21*K21)/(K$20+273.15)/8.31+2.39*K32*K32)*EXP(((-4*PI()*(719-487*(1.189+0.075*K32))*1000000000*6.02E+23)/(8.31*(K20+273.15)))*((((1.189+0.075*K32)*0.0000000001/2*((1.189+0.075*K32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*K32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>20.82107337013268</v>
+        <v>20.126816166980447</v>
       </c>
       <c r="L41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(L$20+273.15)/8.31+2.53599567918181*L31+3.22062336896664*L25+5.56939536365427*L34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*L34+207.58312042747*L25)*1000000000*6.02E+23)/(8.31*(L20+273.15)))*((((0.817581105867826+0.0645260838443783*L34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*L34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*L34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.3964177055115545</v>
+        <v>6.3896245576718664</v>
       </c>
       <c r="M41" s="16">
         <f>EXP((6910-2542*M21*M21)/(M$20+273.15)/8.31+2.39*M32*M32)*EXP(((-4*PI()*(719-487*(1.189+0.075*M32))*1000000000*6.02E+23)/(8.31*(M20+273.15)))*((((1.189+0.075*M32)*0.0000000001/2*((1.189+0.075*M32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*M32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>51.688635627471626</v>
+        <v>49.211129803135584</v>
       </c>
       <c r="N41" s="16">
         <f>EXP(-61.9260681512942+65783.1796876913/(N$20+273.15)/8.31+2.53599567918181*N31+3.22062336896664*N25+5.56939536365427*N34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*N34+207.58312042747*N25)*1000000000*6.02E+23)/(8.31*(N20+273.15)))*((((0.817581105867826+0.0645260838443783*N34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*N34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*N34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.9525431163854643</v>
+        <v>6.9491310099376475</v>
       </c>
       <c r="O41" s="16">
         <f>EXP((6910-2542*O21*O21)/(O$20+273.15)/8.31+2.39*O32*O32)*EXP(((-4*PI()*(719-487*(1.189+0.075*O32))*1000000000*6.02E+23)/(8.31*(O20+273.15)))*((((1.189+0.075*O32)*0.0000000001/2*((1.189+0.075*O32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*O32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>15.932987214363054</v>
+        <v>15.475660986992926</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -2942,11 +2989,11 @@
       </c>
       <c r="B42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(B20+273.15)/8.31+8.09915077406752*B31+14.164822613712*B25+18.6234564741488*B34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B34)*1000000000*6.02E+23)/(8.31*(B20+273.15)))*((((1.13420686227572+0.136783049036052*B32)*0.0000000001/2*((1.13420686227572+0.136783049036052*B32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>2.5315165053372479</v>
+        <v>2.527520879549952</v>
       </c>
       <c r="C42" s="16">
         <f>EXP(16.05-(19.45+1.17*C21*C21)*10000/(C20+273.15)/8.31-5.17*C31*C31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(C20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>7.8752470424744252E-3</v>
+        <v>8.017220461840998E-3</v>
       </c>
       <c r="D42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(D20+273.15)/8.31+8.09915077406752*D31+14.164822613712*D25+18.6234564741488*D34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D34)*1000000000*6.02E+23)/(8.31*(D20+273.15)))*((((1.13420686227572+0.136783049036052*D32)*0.0000000001/2*((1.13420686227572+0.136783049036052*D32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D32)*0.0000000001-1.12*0.0000000001)^3))))</f>
@@ -2954,47 +3001,47 @@
       </c>
       <c r="E42" s="16">
         <f>EXP(16.05-(19.45+1.17*E21*E21)*10000/(E20+273.15)/8.31-5.17*E31*E31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(E20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>0.11661252337565448</v>
+        <v>0.11706674854071246</v>
       </c>
       <c r="F42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(F20+273.15)/8.31+8.09915077406752*F31+14.164822613712*F25+18.6234564741488*F34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*F34)*1000000000*6.02E+23)/(8.31*(F20+273.15)))*((((1.13420686227572+0.136783049036052*F32)*0.0000000001/2*((1.13420686227572+0.136783049036052*F32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*F32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>50.882724071553262</v>
+        <v>50.835765146922711</v>
       </c>
       <c r="G42" s="16">
         <f>EXP(16.05-(19.45+1.17*G21*G21)*10000/(G20+273.15)/8.31-5.17*G31*G31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(G20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>4.4645674650589572E-2</v>
+        <v>4.499779827898117E-2</v>
       </c>
       <c r="H42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(H20+273.15)/8.31+8.09915077406752*H31+14.164822613712*H25+18.6234564741488*H34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*H34)*1000000000*6.02E+23)/(8.31*(H20+273.15)))*((((1.13420686227572+0.136783049036052*H32)*0.0000000001/2*((1.13420686227572+0.136783049036052*H32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*H32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>51.944747468702836</v>
+        <v>51.91747901488425</v>
       </c>
       <c r="I42" s="16">
         <f>EXP(16.05-(19.45+1.17*I21*I21)*10000/(I20+273.15)/8.31-5.17*I31*I31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(I20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>3.7030498811375226E-2</v>
+        <v>3.7417769746922618E-2</v>
       </c>
       <c r="J42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(J20+273.15)/8.31+8.09915077406752*J31+14.164822613712*J25+18.6234564741488*J34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*J34)*1000000000*6.02E+23)/(8.31*(J20+273.15)))*((((1.13420686227572+0.136783049036052*J32)*0.0000000001/2*((1.13420686227572+0.136783049036052*J32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*J32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>52.373936410513792</v>
+        <v>52.357982076539251</v>
       </c>
       <c r="K42" s="16">
         <f>EXP(16.05-(19.45+1.17*K21*K21)*10000/(K20+273.15)/8.31-5.17*K31*K31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(K20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>3.1981444466069896E-2</v>
+        <v>3.2374118373222446E-2</v>
       </c>
       <c r="L42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(L20+273.15)/8.31+8.09915077406752*L31+14.164822613712*L25+18.6234564741488*L34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*L34)*1000000000*6.02E+23)/(8.31*(L20+273.15)))*((((1.13420686227572+0.136783049036052*L32)*0.0000000001/2*((1.13420686227572+0.136783049036052*L32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*L32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>47.389911748582733</v>
+        <v>47.359231132615527</v>
       </c>
       <c r="M42" s="16">
         <f>EXP(16.05-(19.45+1.17*M21*M21)*10000/(M20+273.15)/8.31-5.17*M31*M31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(M20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>4.9235589282130961E-2</v>
+        <v>4.9549976691894607E-2</v>
       </c>
       <c r="N42" s="16">
         <f>EXP(-194.750048582546+66615.7411108772/(N20+273.15)/8.31+8.09915077406752*N31+14.164822613712*N25+18.6234564741488*N34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*N34)*1000000000*6.02E+23)/(8.31*(N20+273.15)))*((((1.13420686227572+0.136783049036052*N32)*0.0000000001/2*((1.13420686227572+0.136783049036052*N32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*N32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>53.205002111637093</v>
+        <v>53.188854193997244</v>
       </c>
       <c r="O42" s="16">
         <f>EXP(16.05-(19.45+1.17*O21*O21)*10000/(O20+273.15)/8.31-5.17*O31*O31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(O20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>2.0441724579588139E-2</v>
+        <v>2.0811387795356174E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -3024,37 +3071,37 @@
       </c>
       <c r="B45" s="31">
         <f>4*LOG10((6.15*10^-4)*((B22/C22)*C41-B41)/(B42-(B22/C22)*C42))</f>
-        <v>-13.949470977821978</v>
+        <v>-13.973739512349059</v>
       </c>
       <c r="C45" s="32"/>
       <c r="D45" s="31">
         <f>4*LOG10((6.15*10^-4)*((D22/E22)*E41-D41)/(D42-(D22/E22)*E42))</f>
-        <v>-14.870351008230029</v>
+        <v>-14.937018707615344</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="31">
         <f>4*LOG10((6.15*10^-4)*((F22/G22)*G41-F41)/(F42-(F22/G22)*G42))</f>
-        <v>-10.331425442841441</v>
+        <v>-10.413868306076647</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="31">
         <f>4*LOG10((6.15*10^-4)*((H22/I22)*I41-H41)/(H42-(H22/I22)*I42))</f>
-        <v>-10.242847286687626</v>
+        <v>-10.318514596198886</v>
       </c>
       <c r="I45" s="29"/>
       <c r="J45" s="31">
         <f>4*LOG10((6.15*10^-4)*((J22/K22)*K41-J41)/(J42-(J22/K22)*K42))</f>
-        <v>-9.7340629659047853</v>
+        <v>-9.7935623557745171</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="31">
         <f>4*LOG10((6.15*10^-4)*((L22/M22)*M41-L41)/(L42-(L22/M22)*M42))</f>
-        <v>-9.725020753839841</v>
+        <v>-9.8110794644248234</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="31">
         <f>4*LOG10((6.15*10^-4)*((N22/O22)*O41-N41)/(N42-(N22/O22)*O42))</f>
-        <v>-9.6043748907681437</v>
+        <v>-9.655199546027001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3063,37 +3110,37 @@
       </c>
       <c r="B46" s="31">
         <f>B45-(-27489/(B20+273)+6.702+0.055*((B21*10000)-1)/(B20+273))</f>
-        <v>-0.28937347215304321</v>
+        <v>-0.31364200668012465</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="31">
         <f>D45-(-27489/(D20+273)+6.702+0.055*((D21*10000)-1)/(D20+273))</f>
-        <v>-1.5551951451564676</v>
+        <v>-1.6218628445417824</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="31">
         <f>F45-(-27489/(F20+273)+6.702+0.055*((F21*10000)-1)/(F20+273))</f>
-        <v>3.7402366886778342</v>
+        <v>3.6577938254426279</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="31">
         <f>H45-(-27489/(H20+273)+6.702+0.055*((H21*10000)-1)/(H20+273))</f>
-        <v>3.8288148448316495</v>
+        <v>3.7531475353203891</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="31">
         <f>J45-(-27489/(J20+273)+6.702+0.055*((J21*10000)-1)/(J20+273))</f>
-        <v>4.3375991656144901</v>
+        <v>4.2780997757447583</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="31">
         <f>L45-(-27489/(L20+273)+6.702+0.055*((L21*10000)-1)/(L20+273))</f>
-        <v>4.3466413776794344</v>
+        <v>4.260582667094452</v>
       </c>
       <c r="M46" s="29"/>
       <c r="N46" s="31">
         <f>N45-(-27489/(N20+273)+6.702+0.055*((N21*10000)-1)/(N20+273))</f>
-        <v>4.4672872407511317</v>
+        <v>4.4164625854922743</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3102,37 +3149,37 @@
       </c>
       <c r="B47" s="33">
         <f>B45-(-25096.3/(B20+273)+8.735+0.11*((B21*10000)-1)/(B20+273))</f>
-        <v>-4.5465949385173694</v>
+        <v>-4.5708634730444508</v>
       </c>
       <c r="C47" s="34"/>
       <c r="D47" s="33">
         <f>D45-(-25096.3/(D20+273)+8.735+0.11*((D21*10000)-1)/(D20+273))</f>
-        <v>-5.3348411757464156</v>
+        <v>-5.4015088751317304</v>
       </c>
       <c r="E47" s="34"/>
       <c r="F47" s="33">
         <f>F45-(-25096.3/(F20+273)+8.735+0.11*((F21*10000)-1)/(F20+273))</f>
-        <v>-0.10542015183615128</v>
+        <v>-0.18786301507135761</v>
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33">
         <f>H45-(-25096.3/(H20+273)+8.735+0.11*((H21*10000)-1)/(H20+273))</f>
-        <v>-1.684199568233602E-2</v>
+        <v>-9.2509305193596347E-2</v>
       </c>
       <c r="I47" s="33"/>
       <c r="J47" s="33">
         <f>J45-(-25096.3/(J20+273)+8.735+0.11*((J21*10000)-1)/(J20+273))</f>
-        <v>0.49194232510050462</v>
+        <v>0.43244293523077282</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33">
         <f>L45-(-25096.3/(L20+273)+8.735+0.11*((L21*10000)-1)/(L20+273))</f>
-        <v>0.50098453716544888</v>
+        <v>0.41492582658046651</v>
       </c>
       <c r="M47" s="33"/>
       <c r="N47" s="33">
         <f>N45-(-25096.3/(N20+273)+8.735+0.11*((N21*10000)-1)/(N20+273))</f>
-        <v>0.62163040023714622</v>
+        <v>0.57080574497828884</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3210,37 +3257,37 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A15 A17:A19">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A35 A37:A38">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C35 B25:B38">
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E35 D25:D38">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G35 F25:F38">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I35 H25:H38">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:K35 J25:J38">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
